--- a/Configs/Word.xlsx
+++ b/Configs/Word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBABEF-1640-47E9-9E33-F24E4FBB41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0895A688-5A4A-43DD-BDD6-0CEAAFF75630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -468,13 +468,97 @@
         <v>1003</v>
       </c>
       <c r="B6">
-        <v>333</v>
+        <v>3333</v>
       </c>
       <c r="C6">
         <v>30303030</v>
       </c>
       <c r="D6">
         <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7">
+        <v>4444</v>
+      </c>
+      <c r="C7">
+        <v>40404040</v>
+      </c>
+      <c r="D7">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8">
+        <v>5555</v>
+      </c>
+      <c r="C8">
+        <v>50505050</v>
+      </c>
+      <c r="D8">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9">
+        <v>6666</v>
+      </c>
+      <c r="C9">
+        <v>60606060</v>
+      </c>
+      <c r="D9">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10">
+        <v>7777</v>
+      </c>
+      <c r="C10">
+        <v>70707070</v>
+      </c>
+      <c r="D10">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11">
+        <v>8888</v>
+      </c>
+      <c r="C11">
+        <v>80808080</v>
+      </c>
+      <c r="D11">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12">
+        <v>9999</v>
+      </c>
+      <c r="C12">
+        <v>90909090</v>
+      </c>
+      <c r="D12">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Word.xlsx
+++ b/Configs/Word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0895A688-5A4A-43DD-BDD6-0CEAAFF75630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BCA7CD-5DF6-4002-A002-AC8EAD795C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +57,9 @@
   <si>
     <t>nextid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -388,7 +387,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -398,13 +397,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -412,27 +411,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
